--- a/NewsRec/z-others/data/original/6-书评光明网.xlsx
+++ b/NewsRec/z-others/data/original/6-书评光明网.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\推荐系统\3-数据集\新闻推荐实例数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\NewsRecSys\NewsRec\z-others\data\original\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$128</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="371">
   <si>
     <t>标题</t>
   </si>
@@ -125,9 +129,6 @@
 　　身处伟大变革的时代，各种观念激烈碰撞，新的理念如雨后春笋。审视时代的发展脉络，思考国家的大政方略，以更宽广、更前沿的视野记录时代的波澜，是文艺家应该担负起的使命。有经济学家断言，“中国经济最大的潜力就是每个人都有过上美好生活的愿望”。中国农村最美好的前景，就是每个人都能幸福生活，都能寄托乡愁。如此，可以设想，当一粒粒种子叩动大地之门，一个民族最有活力的呼吸，会从地底喷薄而出，凝聚成激越上升的壮观能量。让礼村的生命和前景终究会是何种模样，无人能精准预测，包括作者自己。而作者的可贵之处，是将新农村巨变的思索的闸门打开，让思考起航。
 　　将整个世间浓缩进一个村庄，由人物、故事的实，上升到生命感悟和探究的虚，作者对文学作品样式的深度，拓展性书写，进一步扩张了纪实文学的诗意空间。
 　　《光明日报》（ 2018年11月13日 16版）[责任编辑:张悦鑫]</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2018-05-09 16:40</t>
@@ -1749,9 +1750,6 @@
     <t>历史深处的叹息——评《剑魂箫韵——龚自珍传》</t>
   </si>
   <si>
-    <t>2017-07-04 09:14</t>
-  </si>
-  <si>
     <t>　　崇高博大的文化精神必然要靠具体的人格和行为来体现，反过来，优秀的人品和社会作为，又可以不断丰富生生不息的文化精神。忧国忧民、兼济天下、志存高远……这些一向是中国传统文人突出的人格特征和价值追求，在大力提倡弘扬优秀传统文化的今天，从传统文化人格的优秀品质中汲取养分，以铸造和滋养现代文化人格，本身就是对传统文化精神的深层传续。陈歆耕撰写的《剑魂箫韵——龚自珍传》（作家出版社出版），正是在屈原的忠贞不渝、杜甫的心系苍生这样一条传统文化人格的脉络里，理解和书写晚清文学巨匠、思想家龚自珍。
 　　传主之魂，也是我国传统文人士者的人格之魂。抓住了这一点的《剑魂箫韵——龚自珍传》，在结构上完全打破传统传记按时间顺序纵向描述人物历史的惯常模式，按照传主的性格特征以及社会背景等内容，截取有标志性的横断面，划分出其人生境遇的三大板块，将全书分为上、中、下三部。上部题为“巨匠”，直接从传主最突出的人格形象和价值地位入笔，作为“一代文字之雄”，龚自珍无论其诗其文，其艺其义，的确都堪称巨匠；中部和下部则分别题为“困兽”和“春泥”，高度概括了龚自珍的一生处境、性格特征和不懈的人生追求。
 　　毫无疑问，一位文化史上的巨匠，归根结底要靠思想的风骨立世、传世。由于龚自珍身处“衰世”，其时专制压抑，万马齐喑，世风萎靡，民不聊生，所以他诗文的主调多哀怨兴叹，充满不平之愤，本书作者在上部第二节中将其形象概括为“叹息的雷”，意即虽笔底奔雷，却格调悲叹，虽满怀悲悯，而情难狂放！在直面现实的同时，龚自珍不愿意像病梅一样被削斫扭曲，但在那样的社会环境中，那样的黑暗背景下，他只能如困兽一般宣泄和书写内心的惊雷，以诗文傲骨表现不屈的“犹斗”。
@@ -2118,9 +2116,6 @@
   </si>
   <si>
     <t>越来越多的知识，越来越难的选择</t>
-  </si>
-  <si>
-    <t>2017-02-27 09:42</t>
   </si>
   <si>
     <t>　　 《知识社会史（下卷）：从&lt;百科全书&gt;到维基百科》（英）彼得·伯克著，汪一帆、赵博囡译，浙江大学出版社2016年12月版
@@ -2560,6 +2555,9 @@
   <si>
     <t>书评</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络素养教育是青少年教育中不可或缺的一环</t>
   </si>
 </sst>
 </file>
@@ -2913,29 +2911,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="F106" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -2949,18 +2947,18 @@
         <v>600000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,500)</f>
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -2974,18 +2972,18 @@
         <v>600001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(1,500)</f>
-        <v>332</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>300</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" ca="1" si="1">RANDBETWEEN(1,30)</f>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -2999,18 +2997,18 @@
         <v>600002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>314</v>
+      </c>
+      <c r="E4">
+        <f ca="1">RANDBETWEEN(1,30)</f>
         <v>10</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -3024,18 +3022,18 @@
         <v>600003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>430</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>280</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -3049,24 +3047,24 @@
         <v>600004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>235</v>
+      </c>
+      <c r="E6">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>369</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3074,24 +3072,24 @@
         <v>600005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>168</v>
+      </c>
+      <c r="E7">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3099,24 +3097,24 @@
         <v>600006</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>292</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>45</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3124,24 +3122,24 @@
         <v>600007</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3149,24 +3147,24 @@
         <v>600008</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>195</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3174,24 +3172,24 @@
         <v>600009</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>287</v>
+      </c>
+      <c r="E11">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>158</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3199,24 +3197,24 @@
         <v>600010</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>368</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>73</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3224,24 +3222,24 @@
         <v>600011</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>297</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>145</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3249,24 +3247,24 @@
         <v>600012</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>139</v>
+      </c>
+      <c r="E14">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3274,24 +3272,24 @@
         <v>600013</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3299,24 +3297,24 @@
         <v>600014</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>159</v>
+      </c>
+      <c r="E16">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3324,24 +3322,24 @@
         <v>600015</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>415</v>
+      </c>
+      <c r="E17">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3349,24 +3347,24 @@
         <v>600016</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>202</v>
+      </c>
+      <c r="E18">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3374,24 +3372,24 @@
         <v>600017</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>85</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3399,24 +3397,24 @@
         <v>600018</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>234</v>
+      </c>
+      <c r="E20">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3424,24 +3422,24 @@
         <v>600019</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>174</v>
+      </c>
+      <c r="E21">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>445</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3449,24 +3447,24 @@
         <v>600020</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>243</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">RANDBETWEEN(1,30)</f>
         <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3474,24 +3472,24 @@
         <v>600021</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>388</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>275</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3499,24 +3497,24 @@
         <v>600022</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>194</v>
+      </c>
+      <c r="E24">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="0"/>
-        <v>209</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3524,24 +3522,24 @@
         <v>600023</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>261</v>
+      </c>
+      <c r="E25">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="0"/>
-        <v>415</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3549,24 +3547,24 @@
         <v>600024</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>460</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>439</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3574,24 +3572,24 @@
         <v>600025</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>343</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3599,24 +3597,24 @@
         <v>600026</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>339</v>
+      </c>
+      <c r="E28">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="0"/>
-        <v>181</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3624,24 +3622,24 @@
         <v>600027</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>106</v>
+      </c>
+      <c r="E29">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3649,24 +3647,24 @@
         <v>600028</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>123</v>
+      </c>
+      <c r="E30">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3674,24 +3672,24 @@
         <v>600029</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="0"/>
-        <v>372</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3699,24 +3697,24 @@
         <v>600030</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>65</v>
+      </c>
+      <c r="E32">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3724,24 +3722,24 @@
         <v>600031</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>336</v>
+      </c>
+      <c r="E33">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="0"/>
-        <v>393</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3749,24 +3747,24 @@
         <v>600032</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>287</v>
+      </c>
+      <c r="E34">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3774,24 +3772,24 @@
         <v>600033</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>130</v>
+      </c>
+      <c r="E35">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>27</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="0"/>
-        <v>373</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3799,24 +3797,24 @@
         <v>600034</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>78</v>
+      </c>
+      <c r="E36">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="0"/>
-        <v>409</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3824,24 +3822,24 @@
         <v>600035</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>379</v>
+      </c>
+      <c r="E37">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="0"/>
-        <v>351</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3849,24 +3847,24 @@
         <v>600036</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>194</v>
+      </c>
+      <c r="E38">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>26</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3874,24 +3872,24 @@
         <v>600037</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>486</v>
+      </c>
+      <c r="E39">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="0"/>
-        <v>243</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3899,24 +3897,24 @@
         <v>600038</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>403</v>
+      </c>
+      <c r="E40">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="0"/>
-        <v>370</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3924,24 +3922,24 @@
         <v>600039</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>99</v>
+      </c>
+      <c r="E41">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3949,24 +3947,24 @@
         <v>600040</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>400</v>
+      </c>
+      <c r="E42">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="0"/>
-        <v>453</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3974,24 +3972,24 @@
         <v>600041</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>267</v>
+      </c>
+      <c r="E43">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3999,24 +3997,24 @@
         <v>600042</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>145</v>
+      </c>
+      <c r="E44">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>26</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="0"/>
-        <v>295</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4024,24 +4022,24 @@
         <v>600043</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>388</v>
+      </c>
+      <c r="E45">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ca="1" si="0"/>
-        <v>339</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4049,24 +4047,24 @@
         <v>600044</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>228</v>
+      </c>
+      <c r="E46">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="0"/>
-        <v>332</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4074,24 +4072,24 @@
         <v>600045</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>389</v>
+      </c>
+      <c r="E47">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>15</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D47">
-        <f t="shared" ca="1" si="0"/>
-        <v>455</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4099,24 +4097,24 @@
         <v>600046</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>320</v>
+      </c>
+      <c r="E48">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4124,24 +4122,24 @@
         <v>600047</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>114</v>
+      </c>
+      <c r="E49">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4149,24 +4147,24 @@
         <v>600048</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>266</v>
+      </c>
+      <c r="E50">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,24 +4172,24 @@
         <v>600049</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>469</v>
+      </c>
+      <c r="E51">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ca="1" si="0"/>
-        <v>239</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4199,24 +4197,24 @@
         <v>600050</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>452</v>
+      </c>
+      <c r="E52">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D52">
-        <f t="shared" ca="1" si="0"/>
-        <v>456</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4224,24 +4222,24 @@
         <v>600051</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>427</v>
+      </c>
+      <c r="E53">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ca="1" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4249,24 +4247,24 @@
         <v>600052</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>433</v>
+      </c>
+      <c r="E54">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>23</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="0"/>
-        <v>410</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4274,24 +4272,24 @@
         <v>600053</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>48</v>
+      </c>
+      <c r="E55">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ca="1" si="0"/>
-        <v>499</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4299,24 +4297,24 @@
         <v>600054</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>378</v>
+      </c>
+      <c r="E56">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4324,24 +4322,24 @@
         <v>600055</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>386</v>
+      </c>
+      <c r="E57">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="0"/>
-        <v>201</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4349,24 +4347,24 @@
         <v>600056</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>235</v>
+      </c>
+      <c r="E58">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4374,24 +4372,24 @@
         <v>600057</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>191</v>
+      </c>
+      <c r="E59">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ca="1" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4399,24 +4397,24 @@
         <v>600058</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>192</v>
+      </c>
+      <c r="E60">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ca="1" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4424,24 +4422,24 @@
         <v>600059</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>493</v>
+      </c>
+      <c r="E61">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ca="1" si="0"/>
-        <v>431</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4449,24 +4447,24 @@
         <v>600060</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>361</v>
+      </c>
+      <c r="E62">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>17</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D62">
-        <f t="shared" ca="1" si="0"/>
-        <v>189</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4474,24 +4472,24 @@
         <v>600061</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>374</v>
+      </c>
+      <c r="E63">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D63">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4499,24 +4497,24 @@
         <v>600062</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>446</v>
+      </c>
+      <c r="E64">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>4</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ca="1" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4524,24 +4522,24 @@
         <v>600063</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>62</v>
+      </c>
+      <c r="E65">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D65">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4549,24 +4547,24 @@
         <v>600064</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>384</v>
+      </c>
+      <c r="E66">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ca="1" si="0"/>
-        <v>368</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4574,24 +4572,24 @@
         <v>600065</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>320</v>
+      </c>
+      <c r="E67">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>17</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D128" ca="1" si="2">RANDBETWEEN(1,500)</f>
-        <v>171</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E128" ca="1" si="3">RANDBETWEEN(1,30)</f>
-        <v>20</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4599,24 +4597,24 @@
         <v>600066</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>351</v>
+      </c>
+      <c r="E68">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ca="1" si="2"/>
-        <v>163</v>
-      </c>
-      <c r="E68">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4624,24 +4622,24 @@
         <v>600067</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>54</v>
+      </c>
+      <c r="E69">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>28</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ca="1" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4649,24 +4647,24 @@
         <v>600068</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>284</v>
+      </c>
+      <c r="E70">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D70">
-        <f t="shared" ca="1" si="2"/>
-        <v>241</v>
-      </c>
-      <c r="E70">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4674,24 +4672,24 @@
         <v>600069</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>454</v>
+      </c>
+      <c r="E71">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="D71">
-        <f t="shared" ca="1" si="2"/>
-        <v>480</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4699,24 +4697,24 @@
         <v>600070</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>326</v>
+      </c>
+      <c r="E72">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>17</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ca="1" si="2"/>
-        <v>315</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4724,24 +4722,24 @@
         <v>600071</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>41</v>
+      </c>
+      <c r="E73">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D73">
-        <f t="shared" ca="1" si="2"/>
-        <v>373</v>
-      </c>
-      <c r="E73">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4749,24 +4747,24 @@
         <v>600072</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>206</v>
+      </c>
+      <c r="E74">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D74">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="E74">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4774,24 +4772,24 @@
         <v>600073</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>170</v>
+      </c>
+      <c r="E75">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D75">
-        <f t="shared" ca="1" si="2"/>
-        <v>212</v>
-      </c>
-      <c r="E75">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4799,24 +4797,24 @@
         <v>600074</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>42</v>
+      </c>
+      <c r="E76">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D76">
-        <f t="shared" ca="1" si="2"/>
-        <v>361</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4824,24 +4822,24 @@
         <v>600075</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>105</v>
+      </c>
+      <c r="E77">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>27</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D77">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4849,24 +4847,24 @@
         <v>600076</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>409</v>
+      </c>
+      <c r="E78">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>28</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="D78">
-        <f t="shared" ca="1" si="2"/>
-        <v>390</v>
-      </c>
-      <c r="E78">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4874,24 +4872,24 @@
         <v>600077</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>101</v>
+      </c>
+      <c r="E79">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ca="1" si="2"/>
-        <v>162</v>
-      </c>
-      <c r="E79">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4899,24 +4897,24 @@
         <v>600078</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>433</v>
+      </c>
+      <c r="E80">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>15</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ca="1" si="2"/>
-        <v>360</v>
-      </c>
-      <c r="E80">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4924,24 +4922,24 @@
         <v>600079</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>82</v>
+      </c>
+      <c r="E81">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="D81">
-        <f t="shared" ca="1" si="2"/>
-        <v>231</v>
-      </c>
-      <c r="E81">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4949,24 +4947,24 @@
         <v>600080</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D82">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>103</v>
+      </c>
+      <c r="E82">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D82">
-        <f t="shared" ca="1" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="E82">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4974,24 +4972,24 @@
         <v>600081</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>208</v>
+      </c>
+      <c r="E83">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ca="1" si="2"/>
-        <v>241</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4999,24 +4997,24 @@
         <v>600082</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D84">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>496</v>
+      </c>
+      <c r="E84">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D84">
-        <f t="shared" ca="1" si="2"/>
-        <v>481</v>
-      </c>
-      <c r="E84">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5024,24 +5022,24 @@
         <v>600083</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>341</v>
+      </c>
+      <c r="E85">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D85">
-        <f t="shared" ca="1" si="2"/>
-        <v>359</v>
-      </c>
-      <c r="E85">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5049,24 +5047,24 @@
         <v>600084</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D86">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>358</v>
+      </c>
+      <c r="E86">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D86">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5074,24 +5072,24 @@
         <v>600085</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>72</v>
+      </c>
+      <c r="E87">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D87">
-        <f t="shared" ca="1" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="E87">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="G87" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5099,24 +5097,24 @@
         <v>600086</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D88">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>435</v>
+      </c>
+      <c r="E88">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D88">
-        <f t="shared" ca="1" si="2"/>
-        <v>334</v>
-      </c>
-      <c r="E88">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -5124,24 +5122,24 @@
         <v>600087</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>308</v>
+      </c>
+      <c r="E89">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D89">
-        <f t="shared" ca="1" si="2"/>
-        <v>318</v>
-      </c>
-      <c r="E89">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5149,24 +5147,24 @@
         <v>600088</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D90">
-        <f t="shared" ca="1" si="2"/>
-        <v>343</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>79</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5174,24 +5172,24 @@
         <v>600089</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D91">
-        <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>482</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>5</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5199,24 +5197,24 @@
         <v>600090</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D92">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>344</v>
+      </c>
+      <c r="E92">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>28</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D92">
-        <f t="shared" ca="1" si="2"/>
-        <v>430</v>
-      </c>
-      <c r="E92">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5224,24 +5222,24 @@
         <v>600091</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D93">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>431</v>
+      </c>
+      <c r="E93">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D93">
-        <f t="shared" ca="1" si="2"/>
-        <v>229</v>
-      </c>
-      <c r="E93">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="G93" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5249,24 +5247,24 @@
         <v>600092</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>356</v>
+      </c>
+      <c r="E94">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D94">
-        <f t="shared" ca="1" si="2"/>
-        <v>378</v>
-      </c>
-      <c r="E94">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="G94" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5274,24 +5272,24 @@
         <v>600093</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>29</v>
+      </c>
+      <c r="E95">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D95">
-        <f t="shared" ca="1" si="2"/>
-        <v>496</v>
-      </c>
-      <c r="E95">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="G95" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5299,24 +5297,24 @@
         <v>600094</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D96">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>324</v>
+      </c>
+      <c r="E96">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D96">
-        <f t="shared" ca="1" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="E96">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="G96" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -5324,24 +5322,24 @@
         <v>600095</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>199</v>
+      </c>
+      <c r="E97">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D97">
-        <f t="shared" ca="1" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="E97">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="G97" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5349,24 +5347,24 @@
         <v>600096</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D98">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>222</v>
+      </c>
+      <c r="E98">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D98">
-        <f t="shared" ca="1" si="2"/>
-        <v>129</v>
-      </c>
-      <c r="E98">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="G98" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5374,24 +5372,24 @@
         <v>600097</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D99">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>460</v>
+      </c>
+      <c r="E99">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D99">
-        <f t="shared" ca="1" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="G99" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5399,24 +5397,24 @@
         <v>600098</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>129</v>
+      </c>
+      <c r="E100">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D100">
-        <f t="shared" ca="1" si="2"/>
-        <v>438</v>
-      </c>
-      <c r="E100">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5424,24 +5422,24 @@
         <v>600099</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>266</v>
+      </c>
+      <c r="E101">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D101">
-        <f t="shared" ca="1" si="2"/>
-        <v>205</v>
-      </c>
-      <c r="E101">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="G101" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5449,24 +5447,24 @@
         <v>600100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D102">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>426</v>
+      </c>
+      <c r="E102">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D102">
-        <f t="shared" ca="1" si="2"/>
-        <v>141</v>
-      </c>
-      <c r="E102">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="G102" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5474,24 +5472,24 @@
         <v>600101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D103">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>210</v>
+      </c>
+      <c r="E103">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D103">
-        <f t="shared" ca="1" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="E103">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="G103" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5499,24 +5497,24 @@
         <v>600102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>390</v>
+      </c>
+      <c r="E104">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>12</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D104">
-        <f t="shared" ca="1" si="2"/>
-        <v>367</v>
-      </c>
-      <c r="E104">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="G104" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5524,24 +5522,24 @@
         <v>600103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D105">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>485</v>
+      </c>
+      <c r="E105">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D105">
-        <f t="shared" ca="1" si="2"/>
-        <v>343</v>
-      </c>
-      <c r="E105">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -5549,24 +5547,24 @@
         <v>600104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D106">
-        <f t="shared" ca="1" si="2"/>
-        <v>162</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>89</v>
       </c>
       <c r="E106">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5574,24 +5572,24 @@
         <v>600105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D107">
-        <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>32</v>
       </c>
       <c r="E107">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5599,24 +5597,24 @@
         <v>600106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D108">
-        <f t="shared" ca="1" si="2"/>
-        <v>343</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>341</v>
       </c>
       <c r="E108">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5624,24 +5622,24 @@
         <v>600107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D109">
-        <f t="shared" ca="1" si="2"/>
-        <v>275</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>206</v>
       </c>
       <c r="E109">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5649,24 +5647,24 @@
         <v>600108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D110">
-        <f t="shared" ca="1" si="2"/>
-        <v>299</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>260</v>
       </c>
       <c r="E110">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5674,24 +5672,24 @@
         <v>600109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D111">
-        <f t="shared" ca="1" si="2"/>
-        <v>158</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>402</v>
       </c>
       <c r="E111">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5699,24 +5697,24 @@
         <v>600110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D112">
-        <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>362</v>
       </c>
       <c r="E112">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5724,24 +5722,24 @@
         <v>600111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D113">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>435</v>
       </c>
       <c r="E113">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5749,24 +5747,24 @@
         <v>600112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D114">
-        <f t="shared" ca="1" si="2"/>
-        <v>355</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>296</v>
       </c>
       <c r="E114">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>4</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5774,24 +5772,24 @@
         <v>600113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D115">
-        <f t="shared" ca="1" si="2"/>
-        <v>453</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>264</v>
       </c>
       <c r="E115">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5799,24 +5797,24 @@
         <v>600114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D116">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>366</v>
+      </c>
+      <c r="E116">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D116">
-        <f t="shared" ca="1" si="2"/>
-        <v>127</v>
-      </c>
-      <c r="E116">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="G116" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5824,24 +5822,24 @@
         <v>600115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D117">
-        <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>488</v>
       </c>
       <c r="E117">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5849,24 +5847,24 @@
         <v>600116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D118">
-        <f t="shared" ca="1" si="2"/>
-        <v>175</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>134</v>
       </c>
       <c r="E118">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5874,24 +5872,24 @@
         <v>600117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D119">
-        <f t="shared" ca="1" si="2"/>
-        <v>302</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>365</v>
       </c>
       <c r="E119">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>15</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5899,24 +5897,24 @@
         <v>600118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D120">
-        <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>282</v>
       </c>
       <c r="E120">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5924,24 +5922,24 @@
         <v>600119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D121">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>5</v>
       </c>
       <c r="E121">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>17</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5949,24 +5947,24 @@
         <v>600120</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D122">
-        <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>466</v>
       </c>
       <c r="E122">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>17</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5974,24 +5972,24 @@
         <v>600121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D123">
-        <f t="shared" ca="1" si="2"/>
-        <v>459</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>290</v>
       </c>
       <c r="E123">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -5999,24 +5997,24 @@
         <v>600122</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D124">
-        <f t="shared" ca="1" si="2"/>
-        <v>287</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>76</v>
       </c>
       <c r="E124">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -6024,24 +6022,24 @@
         <v>600123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D125">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>97</v>
       </c>
       <c r="E125">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -6049,77 +6047,694 @@
         <v>600124</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D126">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>359</v>
+      </c>
+      <c r="E126">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G128">
+    <sortCondition ref="A94"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:A128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E126">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>600125</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D127">
-        <f t="shared" ca="1" si="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E127">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="F127" s="2" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G127" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>600126</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D128">
-        <f t="shared" ca="1" si="2"/>
-        <v>221</v>
-      </c>
-      <c r="E128">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>367</v>
+    </row>
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A128">
+    <sortCondition ref="A2:A128"/>
+  </sortState>
+  <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
